--- a/biology/Zoologie/Cantharis_obscura/Cantharis_obscura.xlsx
+++ b/biology/Zoologie/Cantharis_obscura/Cantharis_obscura.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cantharis obscura (le téléphore obscur ou la cantharide obscure) est une espèce d'insectes coléoptères de la famille des Cantharidae que l'on rencontre en Europe, jusqu'en Sibérie occidentale et au cercle polaire.
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le téléphore adulte a une longueur de 9 à 15 mm.
-Les élytres et la tête sont noirs, de même que le pronotum, ce dernier étant teinté de roux sur les bords[1].
+Les élytres et la tête sont noirs, de même que le pronotum, ce dernier étant teinté de roux sur les bords.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les adultes se nourrissent de bourgeons et jeunes feuilles de chênes, ainsi que de jeunes pousses et fleurs de diverses espèces d'arbres fruitiers de la famille des Rosaceae et de la vigne[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les adultes se nourrissent de bourgeons et jeunes feuilles de chênes, ainsi que de jeunes pousses et fleurs de diverses espèces d'arbres fruitiers de la famille des Rosaceae et de la vigne.
 </t>
         </is>
       </c>
